--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Fleurentin/Jacques_Fleurentin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Fleurentin/Jacques_Fleurentin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Fleurentin, né en 1950, est un pharmacien et ethnopharmacologue français du XXIe siècle[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Fleurentin, né en 1950, est un pharmacien et ethnopharmacologue français du XXIe siècle,.
 </t>
         </is>
       </c>
@@ -513,14 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Enseignement en France
-Enseignant à l'Université de Metz : biologie, botanique, pharmacologie, ethnopharmacologie
+          <t>Enseignement en France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Enseignant à l'Université de Metz : biologie, botanique, pharmacologie, ethnopharmacologie
 Responsable de la formation annuelle en ethnopharmacologie appliquée : de la plante au médicament, organisée par la SFE, 40 H d'enseignement à Metz depuis 1997
-Enseignements dans les DU de phytothérapie et aromathérapie aux Universités de Lorraine (Metz et Nancy), Marseille, Besançon, Lyon, Paris…
-Enseignements à l'étranger
-Madagascar, Canada, Mexique, Équateur, Géorgie, Maroc
-Formations
-Au cours de voyages touristiques :
+Enseignements dans les DU de phytothérapie et aromathérapie aux Universités de Lorraine (Metz et Nancy), Marseille, Besançon, Lyon, Paris…</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Enseignements, formations et conférences grand public dispensées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Enseignements à l'étranger</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Madagascar, Canada, Mexique, Équateur, Géorgie, Maroc</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Enseignements, formations et conférences grand public dispensées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au cours de voyages touristiques :
 Mongolie, Chili, Iran, Jordanie et Formation DPC (Développement Formation Continue pour les pharmaciens en voyage touristique), 2016 (addictologie en Namibie), 2017 (Stress et insomnie au Cambodge)
 Formation continue pour les professionnels de la Santé (pharmacien, médecins, vétérinaires, infirmiers, naturopathes) :
 Phytothérapie, aromathérapie, pathologies hivernales, stress et insomnie, inflammation et douleurs articulaires, affections digestives, hépatoprotecteurs et "détox", rein et plantes diurétiques, insuffisance veineuse et circulation sanguine, affections cutanées et beauté, plantes hormonales, ménopause et affections bénignes de la prostate, huiles essentielles et pathologies infectieuses, approche botanique et classification
@@ -533,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Séjours à l'étranger : médecines traditionnelles et plantes médicinales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Moyen-Orient, Asie centrale : Turquie, Afghanistan, Yémen, Syrie, Jordanie, Iran
 Afrique : Maroc, Algérie, Égypte, Tunisie, Niger, Madagascar, Sénégal, Tanzanie, Burkina Faso, Namibie, Afrique du Sud
@@ -568,34 +655,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Livres
-2019 - Plantes des dieux, des démons, des hommes, 208 p., Éditions Ouest-France
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2019 - Plantes des dieux, des démons, des hommes, 208 p., Éditions Ouest-France
 2018 - avec Bernard Weniger, Un tour du monde des plantes qui soignent, Afrique, Amériques, Chine, Outremer, Europe, 240 p., Éditions Ouest-France
 2018 - avec E. Birlouez et coll., La fabuleuse odyssée des épices, 96 p., Éditions Ouest-France
 2016 - Du bon usage des huiles essentielles, 206 p., Éditions Ouest-France, Rééditions 2018, 2019
@@ -605,19 +697,122 @@
 2011 - avec Bernard Weniger et Geneviève Bourdy, Traditions thérapeutiques et médecine de demain, les enjeux de l'ethnopharmaologie, 128 p., Éditions Ouest-France
 2008 - Plantes médicinales, traditions et thérapeutique, 192 p., Éditions Ouest-France
 2007 - Les plantes qui nous soignent, traditions et thérapeutique, 192 p., Éditions Ouest-France
-2004 - Guérisseurs et plantes médicinales du Yémen, au pays de l'encens, de l'aloès et du café, 203 p., Éditions Karthala, Paris
-Publications scientifiques : thèses et ouvrages collectifs
-2016 - Fleurentin J., Jean-Marie Pelt, inducteur de conscience et humaniste infatigable, Académie Nationale de Metz, 30, 301-315
+2004 - Guérisseurs et plantes médicinales du Yémen, au pays de l'encens, de l'aloès et du café, 203 p., Éditions Karthala, Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications scientifiques : thèses et ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2016 - Fleurentin J., Jean-Marie Pelt, inducteur de conscience et humaniste infatigable, Académie Nationale de Metz, 30, 301-315
 2006 - Fleurentin J. et Nicolas J.P., La médecine tibétaine. Sources, concepts et pratique actuelle, Metz, IEE-SFE, 84 p.
 2005 - Fleurentin J. et Pelt J.-M., Chamanisme et thérapeutique. Mythe ou réalité, Metz, IEE-SFE, 80 p.
 2002 - Fleurentin J. et coll., Des sources du savoir aux médicaments du futur, Paris-Metz, IRD-SFE, 468 p.
 1997 - Bellakhdar J., Fleurentin J. et coll., La pharmacopée arabo-islamique, hier et aujourd'hui, Metz-Rabat, SFE, Metz, 360 p.
 1996 - Schröder  E., Fleurentin J. et coll., Médicaments et aliments : l'approche ethnopharmacologique, Paris-Metz, SFE, Editions ORSTOM, 440 p.
 1995 - Cornillot P., Fleurentin J. (co-auteurs) et Lataque Y, Conseillers de la rédaction, Guide pratique des remèdes naturels, Sélection du Reader Digest, 335 P.
-1991 - Fleurentin J. et coll., Ethnopharmacologie, sources, méthodes, objectifs, Paris-Metz, SFE, Éditions ORSTOM, 493 p.
-Éditeur de la revue Ethnopharmacologia
-Jacques Fleurentin et Bernard Weniger, depuis 1987 (63 numéros).
-Activités et communications scientifiques
+1991 - Fleurentin J. et coll., Ethnopharmacologie, sources, méthodes, objectifs, Paris-Metz, SFE, Éditions ORSTOM, 493 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Éditeur de la revue Ethnopharmacologia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jacques Fleurentin et Bernard Weniger, depuis 1987 (63 numéros).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Activités et communications scientifiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Auteur ou co-auteur de 31 publications scientifiques internationales et de 51 publications scientifiques nationales sur les propriétés pharmacologiques des extraits de plantes
 Auteur de 57 communications scientifiques (conférencier invité)
 Directeur de recherche de 21 DEA et thèses d'exercice (expérimentales) dirigées
@@ -639,7 +834,7 @@
 France bleue
 …
 Reportages télévision :
-Ushuaia TV[3],  France 3
+Ushuaia TV,  France 3
 Allo docteur, France 5
 De vous à moi, Via Mirabelle TV
 …
@@ -647,31 +842,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Organisation de congrès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société Française d'Ethnopharmacologie (SFE) a organisé le 1er Colloque Européen d'Ethnopharmacologie à Metz en 1990 Ethnopharmacologie : sources, méthodes, objectifs et le 4e Congrès International d'Ethnopharmacologie Des sources du savoir traditionnel aux médicaments du futur, en 2000 à Metz. 
 La SFE a organisé des colloques sur le chamanisme (2004), la médecine tibétaine (2006), les plantes chez la femme ménopausée (2007), l'herboristerie (2012), l'aromathérapie (2013), la médecine chinoise (2014), médecines et pratiques thérapeutiques de l'Inde (2015), Guérisseurs, envouteurs et exorcistes : reflets contemporains (2016), Guérisseurs d'aujourd'hui en Europe occidentale (2017), Sacré végétal (2018), Gérer l'intime autrement (2019).
@@ -679,31 +876,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Formation universitaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Diplôme de Pharmacien, C.E.S. d'Immunologie générale, C.E.S. de Pharmacodynamie et essais biologiques des médicaments, Faculté de Pharmacie de Nancy.
 Diplôme de Pollution, DEA d'Écotoxicologie et Chimie de l'Environnement, UER d' Écologie, Université de Metz.
@@ -712,31 +911,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinctions honorifiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>2012 - Chevalier de l'ordre national du Burkina Faso, Ouagadougou
 2008 - Grand Prix de l'Académie des Sciences de Lorraine pour l'ouvrage Les plantes qui nous soignent
@@ -746,31 +947,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Activités professionnelles</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Depuis 2017 : Membre de l'Académie Nationale de Metz
 Depuis 1986 : Président de la Société Française d'Ethnopharmacologie à Metz
@@ -784,31 +987,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fleurentin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Jacques Fleurentin, Répertoire des pharmacopées traditionnelles du Yémen et étude pharmacologique de deux espèces à propriétés hépatorénales : Crepis rueppellii et Anisotes trisulcus, S.l., s.n., 1984
 Fleurentin European Symposium on Ethnopharmacology, Société française d'ethnopharmacologie, O.R.S.T.O.M. (Agency : France), Ethnopharmacologie : sources, méthodes, objectifs ; actes du 1er Colloque européen d'ethnopharmacologie, Metz, Centre International des Congrès, 23-25 mars 1990 [Ethnopharmacology : sources, methods, objectives : proceedings of the 1st European Symposium on Ethnopharmacology], La Société, Éditions de l'ORSTOM, Institut française de recherche scientifique pour le développement en coopération, 1991 (ISBN 2709910381 et 9782709910385, lire en ligne)
